--- a/scripts/originality_cv_freq_cluster_results.xlsx
+++ b/scripts/originality_cv_freq_cluster_results.xlsx
@@ -2951,7 +2951,7 @@
         <v>9</v>
       </c>
       <c r="H3">
-        <v>0.04545454545454546</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2977,7 +2977,7 @@
         <v>10</v>
       </c>
       <c r="H4">
-        <v>0.04545454545454546</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3003,7 +3003,7 @@
         <v>11</v>
       </c>
       <c r="H5">
-        <v>0.002164502164502165</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3029,7 +3029,7 @@
         <v>12</v>
       </c>
       <c r="H6">
-        <v>0.002164502164502165</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3081,7 +3081,7 @@
         <v>81</v>
       </c>
       <c r="H8">
-        <v>0.002164502164502165</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3107,7 +3107,7 @@
         <v>72</v>
       </c>
       <c r="H9">
-        <v>0.02272727272727273</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3159,7 +3159,7 @@
         <v>17</v>
       </c>
       <c r="H11">
-        <v>0.002164502164502165</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3211,7 +3211,7 @@
         <v>19</v>
       </c>
       <c r="H13">
-        <v>0.04545454545454546</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3237,7 +3237,7 @@
         <v>20</v>
       </c>
       <c r="H14">
-        <v>0.01136363636363636</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3263,7 +3263,7 @@
         <v>83</v>
       </c>
       <c r="H15">
-        <v>0.01136363636363636</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3289,7 +3289,7 @@
         <v>84</v>
       </c>
       <c r="H16">
-        <v>0.002164502164502165</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3315,7 +3315,7 @@
         <v>122</v>
       </c>
       <c r="H17">
-        <v>0.01515151515151515</v>
+        <v>0.007575757575757575</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3341,7 +3341,7 @@
         <v>86</v>
       </c>
       <c r="H18">
-        <v>0.002164502164502165</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3393,7 +3393,7 @@
         <v>117</v>
       </c>
       <c r="H20">
-        <v>0.007575757575757575</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3445,7 +3445,7 @@
         <v>123</v>
       </c>
       <c r="H22">
-        <v>0.009090909090909092</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3471,7 +3471,7 @@
         <v>90</v>
       </c>
       <c r="H23">
-        <v>0.02272727272727273</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3523,7 +3523,7 @@
         <v>92</v>
       </c>
       <c r="H25">
-        <v>0.01136363636363636</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3549,7 +3549,7 @@
         <v>93</v>
       </c>
       <c r="H26">
-        <v>0.002164502164502165</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3575,7 +3575,7 @@
         <v>124</v>
       </c>
       <c r="H27">
-        <v>0.002164502164502165</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3601,7 +3601,7 @@
         <v>125</v>
       </c>
       <c r="H28">
-        <v>0.009090909090909092</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3653,7 +3653,7 @@
         <v>35</v>
       </c>
       <c r="H30">
-        <v>0.002164502164502165</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3679,7 +3679,7 @@
         <v>126</v>
       </c>
       <c r="H31">
-        <v>0.009090909090909092</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3731,7 +3731,7 @@
         <v>97</v>
       </c>
       <c r="H33">
-        <v>0.007575757575757575</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3783,7 +3783,7 @@
         <v>39</v>
       </c>
       <c r="H35">
-        <v>0.002164502164502165</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3835,7 +3835,7 @@
         <v>41</v>
       </c>
       <c r="H37">
-        <v>0.04545454545454546</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3861,7 +3861,7 @@
         <v>42</v>
       </c>
       <c r="H38">
-        <v>0.002164502164502165</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3887,7 +3887,7 @@
         <v>43</v>
       </c>
       <c r="H39">
-        <v>0.002164502164502165</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3939,7 +3939,7 @@
         <v>98</v>
       </c>
       <c r="H41">
-        <v>0.01136363636363636</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3965,7 +3965,7 @@
         <v>127</v>
       </c>
       <c r="H42">
-        <v>0.009090909090909092</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -4095,7 +4095,7 @@
         <v>103</v>
       </c>
       <c r="H47">
-        <v>0.02272727272727273</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -4121,7 +4121,7 @@
         <v>52</v>
       </c>
       <c r="H48">
-        <v>0.04545454545454546</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -4147,7 +4147,7 @@
         <v>129</v>
       </c>
       <c r="H49">
-        <v>0.02272727272727273</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -4173,7 +4173,7 @@
         <v>104</v>
       </c>
       <c r="H50">
-        <v>0.002164502164502165</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4199,7 +4199,7 @@
         <v>130</v>
       </c>
       <c r="H51">
-        <v>0.04545454545454546</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4251,7 +4251,7 @@
         <v>131</v>
       </c>
       <c r="H53">
-        <v>0.02272727272727273</v>
+        <v>0.007575757575757575</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4303,7 +4303,7 @@
         <v>133</v>
       </c>
       <c r="H55">
-        <v>0.002164502164502165</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4355,7 +4355,7 @@
         <v>134</v>
       </c>
       <c r="H57">
-        <v>0.007575757575757575</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4381,7 +4381,7 @@
         <v>109</v>
       </c>
       <c r="H58">
-        <v>0.002164502164502165</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4407,7 +4407,7 @@
         <v>110</v>
       </c>
       <c r="H59">
-        <v>0.002164502164502165</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4485,7 +4485,7 @@
         <v>135</v>
       </c>
       <c r="H62">
-        <v>0.01515151515151515</v>
+        <v>0.007575757575757575</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4511,7 +4511,7 @@
         <v>113</v>
       </c>
       <c r="H63">
-        <v>0.009090909090909092</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4563,7 +4563,7 @@
         <v>137</v>
       </c>
       <c r="H65">
-        <v>0.002164502164502165</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4615,7 +4615,7 @@
         <v>117</v>
       </c>
       <c r="H67">
-        <v>0.007575757575757575</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4641,7 +4641,7 @@
         <v>118</v>
       </c>
       <c r="H68">
-        <v>0.002164502164502165</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4667,7 +4667,7 @@
         <v>72</v>
       </c>
       <c r="H69">
-        <v>0.02272727272727273</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4719,7 +4719,7 @@
         <v>74</v>
       </c>
       <c r="H71">
-        <v>0.002164502164502165</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4745,7 +4745,7 @@
         <v>75</v>
       </c>
       <c r="H72">
-        <v>0.002164502164502165</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4797,7 +4797,7 @@
         <v>139</v>
       </c>
       <c r="H74">
-        <v>0.01515151515151515</v>
+        <v>0.007575757575757575</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4823,7 +4823,7 @@
         <v>119</v>
       </c>
       <c r="H75">
-        <v>0.04545454545454546</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4849,7 +4849,7 @@
         <v>78</v>
       </c>
       <c r="H76">
-        <v>0.04545454545454546</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4875,7 +4875,7 @@
         <v>79</v>
       </c>
       <c r="H77">
-        <v>0.002164502164502165</v>
+        <v>0.001818181818181818</v>
       </c>
     </row>
   </sheetData>
@@ -4940,7 +4940,7 @@
         <v>210</v>
       </c>
       <c r="H2">
-        <v>0.001466275659824047</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4966,7 +4966,7 @@
         <v>211</v>
       </c>
       <c r="H3">
-        <v>0.02272727272727273</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4992,7 +4992,7 @@
         <v>173</v>
       </c>
       <c r="H4">
-        <v>0.02272727272727273</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5018,7 +5018,7 @@
         <v>143</v>
       </c>
       <c r="H5">
-        <v>0.006493506493506493</v>
+        <v>0.00505050505050505</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5044,7 +5044,7 @@
         <v>212</v>
       </c>
       <c r="H6">
-        <v>0.02272727272727273</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5070,7 +5070,7 @@
         <v>244</v>
       </c>
       <c r="H7">
-        <v>0.001466275659824047</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5096,7 +5096,7 @@
         <v>213</v>
       </c>
       <c r="H8">
-        <v>0.001466275659824047</v>
+        <v>0.009090909090909092</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5122,7 +5122,7 @@
         <v>147</v>
       </c>
       <c r="H9">
-        <v>0.02272727272727273</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5148,7 +5148,7 @@
         <v>148</v>
       </c>
       <c r="H10">
-        <v>0.04545454545454546</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5174,7 +5174,7 @@
         <v>149</v>
       </c>
       <c r="H11">
-        <v>0.04545454545454546</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5200,7 +5200,7 @@
         <v>150</v>
       </c>
       <c r="H12">
-        <v>0.001466275659824047</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5226,7 +5226,7 @@
         <v>151</v>
       </c>
       <c r="H13">
-        <v>0.001466275659824047</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5252,7 +5252,7 @@
         <v>163</v>
       </c>
       <c r="H14">
-        <v>0.003787878787878788</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5278,7 +5278,7 @@
         <v>214</v>
       </c>
       <c r="H15">
-        <v>0.006493506493506493</v>
+        <v>0.00505050505050505</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5304,7 +5304,7 @@
         <v>215</v>
       </c>
       <c r="H16">
-        <v>0.001466275659824047</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5330,7 +5330,7 @@
         <v>216</v>
       </c>
       <c r="H17">
-        <v>0.04545454545454546</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5356,7 +5356,7 @@
         <v>143</v>
       </c>
       <c r="H18">
-        <v>0.006493506493506493</v>
+        <v>0.00505050505050505</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5382,7 +5382,7 @@
         <v>217</v>
       </c>
       <c r="H19">
-        <v>0.01515151515151515</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5408,7 +5408,7 @@
         <v>157</v>
       </c>
       <c r="H20">
-        <v>0.001466275659824047</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5434,7 +5434,7 @@
         <v>222</v>
       </c>
       <c r="H21">
-        <v>0.001466275659824047</v>
+        <v>0.009090909090909092</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -5460,7 +5460,7 @@
         <v>245</v>
       </c>
       <c r="H22">
-        <v>0.006493506493506493</v>
+        <v>0.00505050505050505</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -5486,7 +5486,7 @@
         <v>163</v>
       </c>
       <c r="H23">
-        <v>0.003787878787878788</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5512,7 +5512,7 @@
         <v>219</v>
       </c>
       <c r="H24">
-        <v>0.001466275659824047</v>
+        <v>0.009090909090909092</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5538,7 +5538,7 @@
         <v>220</v>
       </c>
       <c r="H25">
-        <v>0.01136363636363636</v>
+        <v>0.00505050505050505</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -5564,7 +5564,7 @@
         <v>246</v>
       </c>
       <c r="H26">
-        <v>0.001466275659824047</v>
+        <v>0.009090909090909092</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5590,7 +5590,7 @@
         <v>163</v>
       </c>
       <c r="H27">
-        <v>0.003787878787878788</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -5616,7 +5616,7 @@
         <v>222</v>
       </c>
       <c r="H28">
-        <v>0.001466275659824047</v>
+        <v>0.009090909090909092</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -5642,7 +5642,7 @@
         <v>165</v>
       </c>
       <c r="H29">
-        <v>0.001466275659824047</v>
+        <v>0.009090909090909092</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -5668,7 +5668,7 @@
         <v>166</v>
       </c>
       <c r="H30">
-        <v>0.01515151515151515</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -5694,7 +5694,7 @@
         <v>167</v>
       </c>
       <c r="H31">
-        <v>0.02272727272727273</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -5720,7 +5720,7 @@
         <v>168</v>
       </c>
       <c r="H32">
-        <v>0.001466275659824047</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -5746,7 +5746,7 @@
         <v>167</v>
       </c>
       <c r="H33">
-        <v>0.02272727272727273</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -5772,7 +5772,7 @@
         <v>169</v>
       </c>
       <c r="H34">
-        <v>0.001466275659824047</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -5798,7 +5798,7 @@
         <v>166</v>
       </c>
       <c r="H35">
-        <v>0.01515151515151515</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -5850,7 +5850,7 @@
         <v>170</v>
       </c>
       <c r="H37">
-        <v>0.003787878787878788</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5876,7 +5876,7 @@
         <v>171</v>
       </c>
       <c r="H38">
-        <v>0.01136363636363636</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5902,7 +5902,7 @@
         <v>41</v>
       </c>
       <c r="H39">
-        <v>0.001466275659824047</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -5928,7 +5928,7 @@
         <v>247</v>
       </c>
       <c r="H40">
-        <v>0.003787878787878788</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -5954,7 +5954,7 @@
         <v>173</v>
       </c>
       <c r="H41">
-        <v>0.02272727272727273</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6006,7 +6006,7 @@
         <v>174</v>
       </c>
       <c r="H43">
-        <v>0.001466275659824047</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6032,7 +6032,7 @@
         <v>163</v>
       </c>
       <c r="H44">
-        <v>0.003787878787878788</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6058,7 +6058,7 @@
         <v>224</v>
       </c>
       <c r="H45">
-        <v>0.04545454545454546</v>
+        <v>0.00505050505050505</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6084,7 +6084,7 @@
         <v>248</v>
       </c>
       <c r="H46">
-        <v>0.04545454545454546</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6110,7 +6110,7 @@
         <v>249</v>
       </c>
       <c r="H47">
-        <v>0.001466275659824047</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6136,7 +6136,7 @@
         <v>170</v>
       </c>
       <c r="H48">
-        <v>0.003787878787878788</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -6162,7 +6162,7 @@
         <v>226</v>
       </c>
       <c r="H49">
-        <v>0.02272727272727273</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -6188,7 +6188,7 @@
         <v>250</v>
       </c>
       <c r="H50">
-        <v>0.02272727272727273</v>
+        <v>0.007575757575757575</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -6214,7 +6214,7 @@
         <v>163</v>
       </c>
       <c r="H51">
-        <v>0.003787878787878788</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -6240,7 +6240,7 @@
         <v>251</v>
       </c>
       <c r="H52">
-        <v>0.001466275659824047</v>
+        <v>0.009090909090909092</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -6266,7 +6266,7 @@
         <v>229</v>
       </c>
       <c r="H53">
-        <v>0.001466275659824047</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -6292,7 +6292,7 @@
         <v>252</v>
       </c>
       <c r="H54">
-        <v>0.01136363636363636</v>
+        <v>0.007575757575757575</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -6318,7 +6318,7 @@
         <v>231</v>
       </c>
       <c r="H55">
-        <v>0.003787878787878788</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -6344,7 +6344,7 @@
         <v>171</v>
       </c>
       <c r="H56">
-        <v>0.01136363636363636</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -6370,7 +6370,7 @@
         <v>253</v>
       </c>
       <c r="H57">
-        <v>0.001466275659824047</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -6422,7 +6422,7 @@
         <v>143</v>
       </c>
       <c r="H59">
-        <v>0.006493506493506493</v>
+        <v>0.00505050505050505</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -6448,7 +6448,7 @@
         <v>244</v>
       </c>
       <c r="H60">
-        <v>0.001466275659824047</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -6474,7 +6474,7 @@
         <v>254</v>
       </c>
       <c r="H61">
-        <v>0.006493506493506493</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -6500,7 +6500,7 @@
         <v>234</v>
       </c>
       <c r="H62">
-        <v>0.02272727272727273</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -6526,7 +6526,7 @@
         <v>255</v>
       </c>
       <c r="H63">
-        <v>0.001466275659824047</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -6552,7 +6552,7 @@
         <v>256</v>
       </c>
       <c r="H64">
-        <v>0.02272727272727273</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -6604,7 +6604,7 @@
         <v>193</v>
       </c>
       <c r="H66">
-        <v>0.02272727272727273</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6630,7 +6630,7 @@
         <v>194</v>
       </c>
       <c r="H67">
-        <v>0.001466275659824047</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -6656,7 +6656,7 @@
         <v>257</v>
       </c>
       <c r="H68">
-        <v>0.02272727272727273</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -6682,7 +6682,7 @@
         <v>235</v>
       </c>
       <c r="H69">
-        <v>0.001466275659824047</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -6708,7 +6708,7 @@
         <v>163</v>
       </c>
       <c r="H70">
-        <v>0.003787878787878788</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -6734,7 +6734,7 @@
         <v>215</v>
       </c>
       <c r="H71">
-        <v>0.001466275659824047</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -6760,7 +6760,7 @@
         <v>258</v>
       </c>
       <c r="H72">
-        <v>0.01136363636363636</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -6786,7 +6786,7 @@
         <v>259</v>
       </c>
       <c r="H73">
-        <v>0.001466275659824047</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -6812,7 +6812,7 @@
         <v>238</v>
       </c>
       <c r="H74">
-        <v>0.001466275659824047</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -6838,7 +6838,7 @@
         <v>260</v>
       </c>
       <c r="H75">
-        <v>0.01136363636363636</v>
+        <v>0.007575757575757575</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -6864,7 +6864,7 @@
         <v>261</v>
       </c>
       <c r="H76">
-        <v>0.003787878787878788</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -6890,7 +6890,7 @@
         <v>262</v>
       </c>
       <c r="H77">
-        <v>0.006493506493506493</v>
+        <v>0.00505050505050505</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -6916,7 +6916,7 @@
         <v>263</v>
       </c>
       <c r="H78">
-        <v>0.04545454545454546</v>
+        <v>0.00505050505050505</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -6942,7 +6942,7 @@
         <v>264</v>
       </c>
       <c r="H79">
-        <v>0.001466275659824047</v>
+        <v>0.001515151515151515</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -6968,7 +6968,7 @@
         <v>241</v>
       </c>
       <c r="H80">
-        <v>0.02272727272727273</v>
+        <v>0.007575757575757575</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -6994,7 +6994,7 @@
         <v>165</v>
       </c>
       <c r="H81">
-        <v>0.001466275659824047</v>
+        <v>0.009090909090909092</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7020,7 +7020,7 @@
         <v>207</v>
       </c>
       <c r="H82">
-        <v>0.001466275659824047</v>
+        <v>0.009090909090909092</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7046,7 +7046,7 @@
         <v>163</v>
       </c>
       <c r="H83">
-        <v>0.003787878787878788</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7072,7 +7072,7 @@
         <v>165</v>
       </c>
       <c r="H84">
-        <v>0.001466275659824047</v>
+        <v>0.009090909090909092</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7098,7 +7098,7 @@
         <v>208</v>
       </c>
       <c r="H85">
-        <v>0.01136363636363636</v>
+        <v>0.007575757575757575</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7124,7 +7124,7 @@
         <v>265</v>
       </c>
       <c r="H86">
-        <v>0.01136363636363636</v>
+        <v>0.007575757575757575</v>
       </c>
     </row>
   </sheetData>
@@ -7189,7 +7189,7 @@
         <v>344</v>
       </c>
       <c r="H2">
-        <v>0.005681818181818182</v>
+        <v>0.007575757575757575</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7215,7 +7215,7 @@
         <v>345</v>
       </c>
       <c r="H3">
-        <v>0.00303030303030303</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -7267,7 +7267,7 @@
         <v>346</v>
       </c>
       <c r="H5">
-        <v>0.00303030303030303</v>
+        <v>0.002392344497607655</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -7319,7 +7319,7 @@
         <v>362</v>
       </c>
       <c r="H7">
-        <v>0.004545454545454546</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -7345,7 +7345,7 @@
         <v>272</v>
       </c>
       <c r="H8">
-        <v>0.005681818181818182</v>
+        <v>0.007575757575757575</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7371,7 +7371,7 @@
         <v>348</v>
       </c>
       <c r="H9">
-        <v>0.009090909090909092</v>
+        <v>0.002392344497607655</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -7423,7 +7423,7 @@
         <v>395</v>
       </c>
       <c r="H11">
-        <v>0.04545454545454546</v>
+        <v>0.002392344497607655</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -7475,7 +7475,7 @@
         <v>397</v>
       </c>
       <c r="H13">
-        <v>0.00303030303030303</v>
+        <v>0.002392344497607655</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -7501,7 +7501,7 @@
         <v>398</v>
       </c>
       <c r="H14">
-        <v>0.00303030303030303</v>
+        <v>0.002392344497607655</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -7527,7 +7527,7 @@
         <v>399</v>
       </c>
       <c r="H15">
-        <v>0.04545454545454546</v>
+        <v>0.002392344497607655</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -7553,7 +7553,7 @@
         <v>280</v>
       </c>
       <c r="H16">
-        <v>0.005681818181818182</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -7579,7 +7579,7 @@
         <v>354</v>
       </c>
       <c r="H17">
-        <v>0.004545454545454546</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -7631,7 +7631,7 @@
         <v>272</v>
       </c>
       <c r="H19">
-        <v>0.005681818181818182</v>
+        <v>0.007575757575757575</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -7683,7 +7683,7 @@
         <v>272</v>
       </c>
       <c r="H21">
-        <v>0.005681818181818182</v>
+        <v>0.007575757575757575</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -7735,7 +7735,7 @@
         <v>401</v>
       </c>
       <c r="H23">
-        <v>0.007575757575757575</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -7761,7 +7761,7 @@
         <v>402</v>
       </c>
       <c r="H24">
-        <v>0.00303030303030303</v>
+        <v>0.002392344497607655</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -7787,7 +7787,7 @@
         <v>348</v>
       </c>
       <c r="H25">
-        <v>0.009090909090909092</v>
+        <v>0.002392344497607655</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -7813,7 +7813,7 @@
         <v>403</v>
       </c>
       <c r="H26">
-        <v>0.00303030303030303</v>
+        <v>0.002392344497607655</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -7839,7 +7839,7 @@
         <v>357</v>
       </c>
       <c r="H27">
-        <v>0.007575757575757575</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -7917,7 +7917,7 @@
         <v>362</v>
       </c>
       <c r="H30">
-        <v>0.004545454545454546</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -7943,7 +7943,7 @@
         <v>404</v>
       </c>
       <c r="H31">
-        <v>0.02272727272727273</v>
+        <v>0.009090909090909092</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -7969,7 +7969,7 @@
         <v>405</v>
       </c>
       <c r="H32">
-        <v>0.01136363636363636</v>
+        <v>0.009090909090909092</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -8047,7 +8047,7 @@
         <v>362</v>
       </c>
       <c r="H35">
-        <v>0.004545454545454546</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -8073,7 +8073,7 @@
         <v>348</v>
       </c>
       <c r="H36">
-        <v>0.009090909090909092</v>
+        <v>0.002392344497607655</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -8099,7 +8099,7 @@
         <v>407</v>
       </c>
       <c r="H37">
-        <v>0.00303030303030303</v>
+        <v>0.002392344497607655</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -8151,7 +8151,7 @@
         <v>348</v>
       </c>
       <c r="H39">
-        <v>0.009090909090909092</v>
+        <v>0.002392344497607655</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -8177,7 +8177,7 @@
         <v>217</v>
       </c>
       <c r="H40">
-        <v>0.01136363636363636</v>
+        <v>0.009090909090909092</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -8229,7 +8229,7 @@
         <v>363</v>
       </c>
       <c r="H42">
-        <v>0.01515151515151515</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -8281,7 +8281,7 @@
         <v>410</v>
       </c>
       <c r="H44">
-        <v>0.00303030303030303</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -8307,7 +8307,7 @@
         <v>411</v>
       </c>
       <c r="H45">
-        <v>0.004545454545454546</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -8359,7 +8359,7 @@
         <v>412</v>
       </c>
       <c r="H47">
-        <v>0.007575757575757575</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -8385,7 +8385,7 @@
         <v>365</v>
       </c>
       <c r="H48">
-        <v>0.01136363636363636</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -8411,7 +8411,7 @@
         <v>366</v>
       </c>
       <c r="H49">
-        <v>0.005681818181818182</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -8437,7 +8437,7 @@
         <v>367</v>
       </c>
       <c r="H50">
-        <v>0.01136363636363636</v>
+        <v>0.009090909090909092</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -8463,7 +8463,7 @@
         <v>413</v>
       </c>
       <c r="H51">
-        <v>0.004545454545454546</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -8489,7 +8489,7 @@
         <v>310</v>
       </c>
       <c r="H52">
-        <v>0.00303030303030303</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -8515,7 +8515,7 @@
         <v>368</v>
       </c>
       <c r="H53">
-        <v>0.004545454545454546</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -8567,7 +8567,7 @@
         <v>370</v>
       </c>
       <c r="H55">
-        <v>0.005681818181818182</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -8645,7 +8645,7 @@
         <v>372</v>
       </c>
       <c r="H58">
-        <v>0.01136363636363636</v>
+        <v>0.009090909090909092</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -8671,7 +8671,7 @@
         <v>316</v>
       </c>
       <c r="H59">
-        <v>0.01515151515151515</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -8723,7 +8723,7 @@
         <v>362</v>
       </c>
       <c r="H61">
-        <v>0.004545454545454546</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -8749,7 +8749,7 @@
         <v>415</v>
       </c>
       <c r="H62">
-        <v>0.005681818181818182</v>
+        <v>0.007575757575757575</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -8775,7 +8775,7 @@
         <v>416</v>
       </c>
       <c r="H63">
-        <v>0.00303030303030303</v>
+        <v>0.002392344497607655</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -8801,7 +8801,7 @@
         <v>345</v>
       </c>
       <c r="H64">
-        <v>0.00303030303030303</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -8827,7 +8827,7 @@
         <v>417</v>
       </c>
       <c r="H65">
-        <v>0.00303030303030303</v>
+        <v>0.002392344497607655</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -8853,7 +8853,7 @@
         <v>354</v>
       </c>
       <c r="H66">
-        <v>0.004545454545454546</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -8879,7 +8879,7 @@
         <v>418</v>
       </c>
       <c r="H67">
-        <v>0.007575757575757575</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -8931,7 +8931,7 @@
         <v>379</v>
       </c>
       <c r="H69">
-        <v>0.009090909090909092</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -8983,7 +8983,7 @@
         <v>381</v>
       </c>
       <c r="H71">
-        <v>0.00303030303030303</v>
+        <v>0.002392344497607655</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -9061,7 +9061,7 @@
         <v>412</v>
       </c>
       <c r="H74">
-        <v>0.007575757575757575</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -9087,7 +9087,7 @@
         <v>422</v>
       </c>
       <c r="H75">
-        <v>0.00303030303030303</v>
+        <v>0.002392344497607655</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -9113,7 +9113,7 @@
         <v>423</v>
       </c>
       <c r="H76">
-        <v>0.04545454545454546</v>
+        <v>0.002392344497607655</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -9165,7 +9165,7 @@
         <v>362</v>
       </c>
       <c r="H78">
-        <v>0.004545454545454546</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -9217,7 +9217,7 @@
         <v>336</v>
       </c>
       <c r="H80">
-        <v>0.00303030303030303</v>
+        <v>0.002392344497607655</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -9399,7 +9399,7 @@
         <v>127</v>
       </c>
       <c r="H87">
-        <v>0.01515151515151515</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -9425,7 +9425,7 @@
         <v>427</v>
       </c>
       <c r="H88">
-        <v>0.04545454545454546</v>
+        <v>0.002392344497607655</v>
       </c>
     </row>
   </sheetData>
@@ -9490,7 +9490,7 @@
         <v>472</v>
       </c>
       <c r="H2">
-        <v>0.04545454545454546</v>
+        <v>0.004545454545454546</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -9542,7 +9542,7 @@
         <v>74</v>
       </c>
       <c r="H4">
-        <v>0.003787878787878788</v>
+        <v>0.004545454545454546</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -9620,7 +9620,7 @@
         <v>473</v>
       </c>
       <c r="H7">
-        <v>0.003787878787878788</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -9646,7 +9646,7 @@
         <v>474</v>
       </c>
       <c r="H8">
-        <v>0.003787878787878788</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -9776,7 +9776,7 @@
         <v>439</v>
       </c>
       <c r="H13">
-        <v>0.04545454545454546</v>
+        <v>0.004545454545454546</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -9828,7 +9828,7 @@
         <v>441</v>
       </c>
       <c r="H15">
-        <v>0.003787878787878788</v>
+        <v>0.004545454545454546</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -9906,7 +9906,7 @@
         <v>443</v>
       </c>
       <c r="H18">
-        <v>0.003787878787878788</v>
+        <v>0.004545454545454546</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -9958,7 +9958,7 @@
         <v>445</v>
       </c>
       <c r="H20">
-        <v>0.009090909090909092</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -9984,7 +9984,7 @@
         <v>446</v>
       </c>
       <c r="H21">
-        <v>0.003787878787878788</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -10036,7 +10036,7 @@
         <v>445</v>
       </c>
       <c r="H23">
-        <v>0.009090909090909092</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -10062,7 +10062,7 @@
         <v>496</v>
       </c>
       <c r="H24">
-        <v>0.02272727272727273</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -10192,7 +10192,7 @@
         <v>481</v>
       </c>
       <c r="H29">
-        <v>0.04545454545454546</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -10218,7 +10218,7 @@
         <v>498</v>
       </c>
       <c r="H30">
-        <v>0.009090909090909092</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -10244,7 +10244,7 @@
         <v>499</v>
       </c>
       <c r="H31">
-        <v>0.04545454545454546</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -10296,7 +10296,7 @@
         <v>501</v>
       </c>
       <c r="H33">
-        <v>0.003787878787878788</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -10322,7 +10322,7 @@
         <v>445</v>
       </c>
       <c r="H34">
-        <v>0.009090909090909092</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -10348,7 +10348,7 @@
         <v>486</v>
       </c>
       <c r="H35">
-        <v>0.02272727272727273</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -10400,7 +10400,7 @@
         <v>487</v>
       </c>
       <c r="H37">
-        <v>0.04545454545454546</v>
+        <v>0.004545454545454546</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -10426,7 +10426,7 @@
         <v>460</v>
       </c>
       <c r="H38">
-        <v>0.003787878787878788</v>
+        <v>0.004545454545454546</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -10478,7 +10478,7 @@
         <v>461</v>
       </c>
       <c r="H40">
-        <v>0.003787878787878788</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -10504,7 +10504,7 @@
         <v>502</v>
       </c>
       <c r="H41">
-        <v>0.02272727272727273</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -10634,7 +10634,7 @@
         <v>466</v>
       </c>
       <c r="H46">
-        <v>0.003787878787878788</v>
+        <v>0.004545454545454546</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -10660,7 +10660,7 @@
         <v>504</v>
       </c>
       <c r="H47">
-        <v>0.003787878787878788</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -10686,7 +10686,7 @@
         <v>505</v>
       </c>
       <c r="H48">
-        <v>0.04545454545454546</v>
+        <v>0.004545454545454546</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -10712,7 +10712,7 @@
         <v>469</v>
       </c>
       <c r="H49">
-        <v>0.003787878787878788</v>
+        <v>0.004545454545454546</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -10738,7 +10738,7 @@
         <v>445</v>
       </c>
       <c r="H50">
-        <v>0.009090909090909092</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -10764,7 +10764,7 @@
         <v>486</v>
       </c>
       <c r="H51">
-        <v>0.02272727272727273</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -10790,7 +10790,7 @@
         <v>41</v>
       </c>
       <c r="H52">
-        <v>0.02272727272727273</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
   </sheetData>
@@ -10881,7 +10881,7 @@
         <v>515</v>
       </c>
       <c r="H3">
-        <v>0.01136363636363636</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -10907,7 +10907,7 @@
         <v>540</v>
       </c>
       <c r="H4">
-        <v>0.001420454545454545</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -10959,7 +10959,7 @@
         <v>573</v>
       </c>
       <c r="H6">
-        <v>0.01515151515151515</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -10985,7 +10985,7 @@
         <v>574</v>
       </c>
       <c r="H7">
-        <v>0.001420454545454545</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -11037,7 +11037,7 @@
         <v>575</v>
       </c>
       <c r="H9">
-        <v>0.001420454545454545</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -11089,7 +11089,7 @@
         <v>515</v>
       </c>
       <c r="H11">
-        <v>0.01136363636363636</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -11115,7 +11115,7 @@
         <v>610</v>
       </c>
       <c r="H12">
-        <v>0.001420454545454545</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -11141,7 +11141,7 @@
         <v>611</v>
       </c>
       <c r="H13">
-        <v>0.02272727272727273</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -11193,7 +11193,7 @@
         <v>578</v>
       </c>
       <c r="H15">
-        <v>0.001420454545454545</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -11219,7 +11219,7 @@
         <v>612</v>
       </c>
       <c r="H16">
-        <v>0.01515151515151515</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -11245,7 +11245,7 @@
         <v>103</v>
       </c>
       <c r="H17">
-        <v>0.001420454545454545</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -11271,7 +11271,7 @@
         <v>613</v>
       </c>
       <c r="H18">
-        <v>0.001420454545454545</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -11297,7 +11297,7 @@
         <v>581</v>
       </c>
       <c r="H19">
-        <v>0.01515151515151515</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -11323,7 +11323,7 @@
         <v>541</v>
       </c>
       <c r="H20">
-        <v>0.01515151515151515</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -11375,7 +11375,7 @@
         <v>614</v>
       </c>
       <c r="H22">
-        <v>0.01515151515151515</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -11401,7 +11401,7 @@
         <v>615</v>
       </c>
       <c r="H23">
-        <v>0.001420454545454545</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -11427,7 +11427,7 @@
         <v>139</v>
       </c>
       <c r="H24">
-        <v>0.02272727272727273</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -11453,7 +11453,7 @@
         <v>526</v>
       </c>
       <c r="H25">
-        <v>0.001420454545454545</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -11479,7 +11479,7 @@
         <v>557</v>
       </c>
       <c r="H26">
-        <v>0.02272727272727273</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -11505,7 +11505,7 @@
         <v>616</v>
       </c>
       <c r="H27">
-        <v>0.007575757575757575</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -11531,7 +11531,7 @@
         <v>584</v>
       </c>
       <c r="H28">
-        <v>0.04545454545454546</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -11557,7 +11557,7 @@
         <v>530</v>
       </c>
       <c r="H29">
-        <v>0.001420454545454545</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -11583,7 +11583,7 @@
         <v>617</v>
       </c>
       <c r="H30">
-        <v>0.001420454545454545</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -11635,7 +11635,7 @@
         <v>618</v>
       </c>
       <c r="H32">
-        <v>0.01515151515151515</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -11661,7 +11661,7 @@
         <v>515</v>
       </c>
       <c r="H33">
-        <v>0.01136363636363636</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -11687,7 +11687,7 @@
         <v>533</v>
       </c>
       <c r="H34">
-        <v>0.001420454545454545</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -11713,7 +11713,7 @@
         <v>534</v>
       </c>
       <c r="H35">
-        <v>0.001420454545454545</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -11739,7 +11739,7 @@
         <v>587</v>
       </c>
       <c r="H36">
-        <v>0.007575757575757575</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -11765,7 +11765,7 @@
         <v>588</v>
       </c>
       <c r="H37">
-        <v>0.01515151515151515</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -11817,7 +11817,7 @@
         <v>333</v>
       </c>
       <c r="H39">
-        <v>0.001420454545454545</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -11843,7 +11843,7 @@
         <v>589</v>
       </c>
       <c r="H40">
-        <v>0.001420454545454545</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -11869,7 +11869,7 @@
         <v>541</v>
       </c>
       <c r="H41">
-        <v>0.01515151515151515</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -11921,7 +11921,7 @@
         <v>619</v>
       </c>
       <c r="H43">
-        <v>0.001420454545454545</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -11947,7 +11947,7 @@
         <v>540</v>
       </c>
       <c r="H44">
-        <v>0.001420454545454545</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -11973,7 +11973,7 @@
         <v>541</v>
       </c>
       <c r="H45">
-        <v>0.01515151515151515</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -11999,7 +11999,7 @@
         <v>542</v>
       </c>
       <c r="H46">
-        <v>0.001420454545454545</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -12025,7 +12025,7 @@
         <v>41</v>
       </c>
       <c r="H47">
-        <v>0.001420454545454545</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -12051,7 +12051,7 @@
         <v>543</v>
       </c>
       <c r="H48">
-        <v>0.04545454545454546</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -12077,7 +12077,7 @@
         <v>544</v>
       </c>
       <c r="H49">
-        <v>0.001420454545454545</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -12103,7 +12103,7 @@
         <v>545</v>
       </c>
       <c r="H50">
-        <v>0.001420454545454545</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -12155,7 +12155,7 @@
         <v>333</v>
       </c>
       <c r="H52">
-        <v>0.001420454545454545</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -12181,7 +12181,7 @@
         <v>590</v>
       </c>
       <c r="H53">
-        <v>0.007575757575757575</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -12233,7 +12233,7 @@
         <v>591</v>
       </c>
       <c r="H55">
-        <v>0.001420454545454545</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -12259,7 +12259,7 @@
         <v>620</v>
       </c>
       <c r="H56">
-        <v>0.001420454545454545</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -12337,7 +12337,7 @@
         <v>594</v>
       </c>
       <c r="H59">
-        <v>0.007575757575757575</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -12389,7 +12389,7 @@
         <v>515</v>
       </c>
       <c r="H61">
-        <v>0.01136363636363636</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -12415,7 +12415,7 @@
         <v>595</v>
       </c>
       <c r="H62">
-        <v>0.007575757575757575</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -12441,7 +12441,7 @@
         <v>542</v>
       </c>
       <c r="H63">
-        <v>0.001420454545454545</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -12467,7 +12467,7 @@
         <v>597</v>
       </c>
       <c r="H64">
-        <v>0.01515151515151515</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -12493,7 +12493,7 @@
         <v>622</v>
       </c>
       <c r="H65">
-        <v>0.001420454545454545</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -12519,7 +12519,7 @@
         <v>557</v>
       </c>
       <c r="H66">
-        <v>0.02272727272727273</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -12571,7 +12571,7 @@
         <v>558</v>
       </c>
       <c r="H68">
-        <v>0.02272727272727273</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -12597,7 +12597,7 @@
         <v>500</v>
       </c>
       <c r="H69">
-        <v>0.04545454545454546</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -12623,7 +12623,7 @@
         <v>623</v>
       </c>
       <c r="H70">
-        <v>0.001420454545454545</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -12649,7 +12649,7 @@
         <v>560</v>
       </c>
       <c r="H71">
-        <v>0.001420454545454545</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -12675,7 +12675,7 @@
         <v>561</v>
       </c>
       <c r="H72">
-        <v>0.001420454545454545</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -12727,7 +12727,7 @@
         <v>624</v>
       </c>
       <c r="H74">
-        <v>0.02272727272727273</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -12753,7 +12753,7 @@
         <v>625</v>
       </c>
       <c r="H75">
-        <v>0.02272727272727273</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -12779,7 +12779,7 @@
         <v>626</v>
       </c>
       <c r="H76">
-        <v>0.01515151515151515</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -12831,7 +12831,7 @@
         <v>604</v>
       </c>
       <c r="H78">
-        <v>0.01515151515151515</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -12857,7 +12857,7 @@
         <v>628</v>
       </c>
       <c r="H79">
-        <v>0.007575757575757575</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -12909,7 +12909,7 @@
         <v>569</v>
       </c>
       <c r="H81">
-        <v>0.001420454545454545</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -12935,7 +12935,7 @@
         <v>629</v>
       </c>
       <c r="H82">
-        <v>0.001420454545454545</v>
+        <v>0.001262626262626263</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -12961,7 +12961,7 @@
         <v>607</v>
       </c>
       <c r="H83">
-        <v>0.001420454545454545</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
   </sheetData>
@@ -13052,7 +13052,7 @@
         <v>722</v>
       </c>
       <c r="H3">
-        <v>0.001420454545454545</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -13078,7 +13078,7 @@
         <v>244</v>
       </c>
       <c r="H4">
-        <v>0.01515151515151515</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -13156,7 +13156,7 @@
         <v>687</v>
       </c>
       <c r="H7">
-        <v>0.04545454545454546</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -13208,7 +13208,7 @@
         <v>655</v>
       </c>
       <c r="H9">
-        <v>0.001420454545454545</v>
+        <v>0.009090909090909092</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -13234,7 +13234,7 @@
         <v>688</v>
       </c>
       <c r="H10">
-        <v>0.001420454545454545</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -13260,7 +13260,7 @@
         <v>723</v>
       </c>
       <c r="H11">
-        <v>0.001420454545454545</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -13286,7 +13286,7 @@
         <v>690</v>
       </c>
       <c r="H12">
-        <v>0.001420454545454545</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -13364,7 +13364,7 @@
         <v>118</v>
       </c>
       <c r="H15">
-        <v>0.01136363636363636</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -13416,7 +13416,7 @@
         <v>694</v>
       </c>
       <c r="H17">
-        <v>0.01515151515151515</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -13442,7 +13442,7 @@
         <v>695</v>
       </c>
       <c r="H18">
-        <v>0.01515151515151515</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -13468,7 +13468,7 @@
         <v>645</v>
       </c>
       <c r="H19">
-        <v>0.001420454545454545</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -13494,7 +13494,7 @@
         <v>646</v>
       </c>
       <c r="H20">
-        <v>0.04545454545454546</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -13520,7 +13520,7 @@
         <v>724</v>
       </c>
       <c r="H21">
-        <v>0.001420454545454545</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -13546,7 +13546,7 @@
         <v>725</v>
       </c>
       <c r="H22">
-        <v>0.01515151515151515</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -13598,7 +13598,7 @@
         <v>726</v>
       </c>
       <c r="H24">
-        <v>0.001420454545454545</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -13624,7 +13624,7 @@
         <v>651</v>
       </c>
       <c r="H25">
-        <v>0.001420454545454545</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -13650,7 +13650,7 @@
         <v>699</v>
       </c>
       <c r="H26">
-        <v>0.001420454545454545</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -13728,7 +13728,7 @@
         <v>727</v>
       </c>
       <c r="H29">
-        <v>0.01515151515151515</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -13754,7 +13754,7 @@
         <v>655</v>
       </c>
       <c r="H30">
-        <v>0.001420454545454545</v>
+        <v>0.009090909090909092</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -13780,7 +13780,7 @@
         <v>656</v>
       </c>
       <c r="H31">
-        <v>0.04545454545454546</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -13832,7 +13832,7 @@
         <v>701</v>
       </c>
       <c r="H33">
-        <v>0.04545454545454546</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -13858,7 +13858,7 @@
         <v>127</v>
       </c>
       <c r="H34">
-        <v>0.04545454545454546</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -13910,7 +13910,7 @@
         <v>244</v>
       </c>
       <c r="H36">
-        <v>0.01515151515151515</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -13936,7 +13936,7 @@
         <v>658</v>
       </c>
       <c r="H37">
-        <v>0.04545454545454546</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -13962,7 +13962,7 @@
         <v>659</v>
       </c>
       <c r="H38">
-        <v>0.04545454545454546</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -13988,7 +13988,7 @@
         <v>655</v>
       </c>
       <c r="H39">
-        <v>0.001420454545454545</v>
+        <v>0.009090909090909092</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -14014,7 +14014,7 @@
         <v>645</v>
       </c>
       <c r="H40">
-        <v>0.001420454545454545</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -14040,7 +14040,7 @@
         <v>75</v>
       </c>
       <c r="H41">
-        <v>0.001420454545454545</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -14092,7 +14092,7 @@
         <v>703</v>
       </c>
       <c r="H43">
-        <v>0.001420454545454545</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -14118,7 +14118,7 @@
         <v>645</v>
       </c>
       <c r="H44">
-        <v>0.001420454545454545</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -14144,7 +14144,7 @@
         <v>704</v>
       </c>
       <c r="H45">
-        <v>0.001420454545454545</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -14196,7 +14196,7 @@
         <v>663</v>
       </c>
       <c r="H47">
-        <v>0.001420454545454545</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -14222,7 +14222,7 @@
         <v>664</v>
       </c>
       <c r="H48">
-        <v>0.001420454545454545</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -14248,7 +14248,7 @@
         <v>665</v>
       </c>
       <c r="H49">
-        <v>0.001420454545454545</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -14300,7 +14300,7 @@
         <v>244</v>
       </c>
       <c r="H51">
-        <v>0.01515151515151515</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -14326,7 +14326,7 @@
         <v>255</v>
       </c>
       <c r="H52">
-        <v>0.001420454545454545</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -14378,7 +14378,7 @@
         <v>728</v>
       </c>
       <c r="H54">
-        <v>0.001420454545454545</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -14404,7 +14404,7 @@
         <v>729</v>
       </c>
       <c r="H55">
-        <v>0.001420454545454545</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -14430,7 +14430,7 @@
         <v>730</v>
       </c>
       <c r="H56">
-        <v>0.01136363636363636</v>
+        <v>0.009090909090909092</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -14456,7 +14456,7 @@
         <v>645</v>
       </c>
       <c r="H57">
-        <v>0.001420454545454545</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -14482,7 +14482,7 @@
         <v>75</v>
       </c>
       <c r="H58">
-        <v>0.001420454545454545</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -14508,7 +14508,7 @@
         <v>672</v>
       </c>
       <c r="H59">
-        <v>0.001420454545454545</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -14534,7 +14534,7 @@
         <v>673</v>
       </c>
       <c r="H60">
-        <v>0.001420454545454545</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -14586,7 +14586,7 @@
         <v>731</v>
       </c>
       <c r="H62">
-        <v>0.001420454545454545</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -14612,7 +14612,7 @@
         <v>655</v>
       </c>
       <c r="H63">
-        <v>0.001420454545454545</v>
+        <v>0.009090909090909092</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -14690,7 +14690,7 @@
         <v>732</v>
       </c>
       <c r="H66">
-        <v>0.001420454545454545</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -14716,7 +14716,7 @@
         <v>733</v>
       </c>
       <c r="H67">
-        <v>0.001420454545454545</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -14742,7 +14742,7 @@
         <v>734</v>
       </c>
       <c r="H68">
-        <v>0.04545454545454546</v>
+        <v>0.001623376623376623</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -14768,7 +14768,7 @@
         <v>735</v>
       </c>
       <c r="H69">
-        <v>0.01136363636363636</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -14794,7 +14794,7 @@
         <v>717</v>
       </c>
       <c r="H70">
-        <v>0.04545454545454546</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -14820,7 +14820,7 @@
         <v>718</v>
       </c>
       <c r="H71">
-        <v>0.001420454545454545</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -14846,7 +14846,7 @@
         <v>736</v>
       </c>
       <c r="H72">
-        <v>0.01136363636363636</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
   </sheetData>
@@ -14911,7 +14911,7 @@
         <v>787</v>
       </c>
       <c r="H2">
-        <v>0.002066115702479339</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14937,7 +14937,7 @@
         <v>75</v>
       </c>
       <c r="H3">
-        <v>0.01515151515151515</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14963,7 +14963,7 @@
         <v>788</v>
       </c>
       <c r="H4">
-        <v>0.01515151515151515</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14989,7 +14989,7 @@
         <v>789</v>
       </c>
       <c r="H5">
-        <v>0.009090909090909092</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -15015,7 +15015,7 @@
         <v>542</v>
       </c>
       <c r="H6">
-        <v>0.02272727272727273</v>
+        <v>0.002066115702479339</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -15041,7 +15041,7 @@
         <v>791</v>
       </c>
       <c r="H7">
-        <v>0.01136363636363636</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -15119,7 +15119,7 @@
         <v>533</v>
       </c>
       <c r="H10">
-        <v>0.02272727272727273</v>
+        <v>0.002066115702479339</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -15171,7 +15171,7 @@
         <v>806</v>
       </c>
       <c r="H12">
-        <v>0.01136363636363636</v>
+        <v>0.007575757575757575</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -15197,7 +15197,7 @@
         <v>795</v>
       </c>
       <c r="H13">
-        <v>0.01515151515151515</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -15223,7 +15223,7 @@
         <v>820</v>
       </c>
       <c r="H14">
-        <v>0.002066115702479339</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -15249,7 +15249,7 @@
         <v>821</v>
       </c>
       <c r="H15">
-        <v>0.009090909090909092</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -15275,7 +15275,7 @@
         <v>822</v>
       </c>
       <c r="H16">
-        <v>0.002066115702479339</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -15301,7 +15301,7 @@
         <v>751</v>
       </c>
       <c r="H17">
-        <v>0.01136363636363636</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -15327,7 +15327,7 @@
         <v>823</v>
       </c>
       <c r="H18">
-        <v>0.01515151515151515</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -15353,7 +15353,7 @@
         <v>753</v>
       </c>
       <c r="H19">
-        <v>0.04545454545454546</v>
+        <v>0.002066115702479339</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -15428,7 +15428,7 @@
         <v>799</v>
       </c>
       <c r="H22">
-        <v>0.04545454545454546</v>
+        <v>0.002066115702479339</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -15454,7 +15454,7 @@
         <v>814</v>
       </c>
       <c r="H23">
-        <v>0.02272727272727273</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -15480,7 +15480,7 @@
         <v>533</v>
       </c>
       <c r="H24">
-        <v>0.02272727272727273</v>
+        <v>0.002066115702479339</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -15532,7 +15532,7 @@
         <v>760</v>
       </c>
       <c r="H26">
-        <v>0.002066115702479339</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -15558,7 +15558,7 @@
         <v>806</v>
       </c>
       <c r="H27">
-        <v>0.01136363636363636</v>
+        <v>0.007575757575757575</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -15584,7 +15584,7 @@
         <v>825</v>
       </c>
       <c r="H28">
-        <v>0.02272727272727273</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -15610,7 +15610,7 @@
         <v>166</v>
       </c>
       <c r="H29">
-        <v>0.002066115702479339</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -15662,7 +15662,7 @@
         <v>166</v>
       </c>
       <c r="H31">
-        <v>0.002066115702479339</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -15714,7 +15714,7 @@
         <v>75</v>
       </c>
       <c r="H33">
-        <v>0.01515151515151515</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15740,7 +15740,7 @@
         <v>826</v>
       </c>
       <c r="H34">
-        <v>0.01136363636363636</v>
+        <v>0.007575757575757575</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15766,7 +15766,7 @@
         <v>802</v>
       </c>
       <c r="H35">
-        <v>0.009090909090909092</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15792,7 +15792,7 @@
         <v>803</v>
       </c>
       <c r="H36">
-        <v>0.01515151515151515</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15844,7 +15844,7 @@
         <v>805</v>
       </c>
       <c r="H38">
-        <v>0.01136363636363636</v>
+        <v>0.007575757575757575</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15948,7 +15948,7 @@
         <v>75</v>
       </c>
       <c r="H42">
-        <v>0.01515151515151515</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15974,7 +15974,7 @@
         <v>673</v>
       </c>
       <c r="H43">
-        <v>0.04545454545454546</v>
+        <v>0.002066115702479339</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -16026,7 +16026,7 @@
         <v>773</v>
       </c>
       <c r="H45">
-        <v>0.002066115702479339</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -16104,7 +16104,7 @@
         <v>194</v>
       </c>
       <c r="H48">
-        <v>0.04545454545454546</v>
+        <v>0.002066115702479339</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -16130,7 +16130,7 @@
         <v>774</v>
       </c>
       <c r="H49">
-        <v>0.002066115702479339</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -16156,7 +16156,7 @@
         <v>806</v>
       </c>
       <c r="H50">
-        <v>0.01136363636363636</v>
+        <v>0.007575757575757575</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -16182,7 +16182,7 @@
         <v>807</v>
       </c>
       <c r="H51">
-        <v>0.04545454545454546</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -16208,7 +16208,7 @@
         <v>808</v>
       </c>
       <c r="H52">
-        <v>0.02272727272727273</v>
+        <v>0.002066115702479339</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -16234,7 +16234,7 @@
         <v>827</v>
       </c>
       <c r="H53">
-        <v>0.002066115702479339</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -16286,7 +16286,7 @@
         <v>780</v>
       </c>
       <c r="H55">
-        <v>0.01515151515151515</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -16312,7 +16312,7 @@
         <v>460</v>
       </c>
       <c r="H56">
-        <v>0.02272727272727273</v>
+        <v>0.002066115702479339</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -16338,7 +16338,7 @@
         <v>811</v>
       </c>
       <c r="H57">
-        <v>0.01515151515151515</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -16364,7 +16364,7 @@
         <v>828</v>
       </c>
       <c r="H58">
-        <v>0.009090909090909092</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -16390,7 +16390,7 @@
         <v>829</v>
       </c>
       <c r="H59">
-        <v>0.04545454545454546</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -16416,7 +16416,7 @@
         <v>805</v>
       </c>
       <c r="H60">
-        <v>0.01136363636363636</v>
+        <v>0.007575757575757575</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -16442,7 +16442,7 @@
         <v>814</v>
       </c>
       <c r="H61">
-        <v>0.02272727272727273</v>
+        <v>0.006493506493506493</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -16468,7 +16468,7 @@
         <v>815</v>
       </c>
       <c r="H62">
-        <v>0.009090909090909092</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="63" spans="1:8">
